--- a/output/df_structured_charging_station2.xlsx
+++ b/output/df_structured_charging_station2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="109">
   <si>
     <t>timestamp</t>
   </si>
@@ -181,160 +181,166 @@
     <t>2022-02-19 01:00</t>
   </si>
   <si>
+    <t>2022-02-19 02:00</t>
+  </si>
+  <si>
     <t>[]</t>
   </si>
   <si>
-    <t>['Others', 'Opel CORSA', 'Hyundai KONA 64 kWh']</t>
-  </si>
-  <si>
-    <t>['VW E-UP', 'Renault ZOE']</t>
-  </si>
-  <si>
-    <t>['Hyundai KONA 64 kWh', 'VW ID.3', 'Others', 'Fiat 500 E']</t>
-  </si>
-  <si>
-    <t>['VW ID.3']</t>
+    <t>['Others', 'Audi E-TRON', 'Others']</t>
+  </si>
+  <si>
+    <t>['Audi E-TRON', 'Others']</t>
+  </si>
+  <si>
+    <t>['TESLA MODEL Y']</t>
+  </si>
+  <si>
+    <t>['Hyundai KONA 64 kWh']</t>
+  </si>
+  <si>
+    <t>['Polestar 2', 'Audi E-TRON', 'Others']</t>
+  </si>
+  <si>
+    <t>['Others', 'Others', 'Others']</t>
+  </si>
+  <si>
+    <t>['VW ID.3', 'Renault ZOE']</t>
+  </si>
+  <si>
+    <t>['VW E-UP', 'VW E-UP', 'Others', 'VW ID.3']</t>
   </si>
   <si>
     <t>['Others']</t>
   </si>
   <si>
-    <t>['Hyundai KONA 39 kWh', 'Others', 'Hyundai KONA 64 kWh']</t>
-  </si>
-  <si>
-    <t>['VW ID.5', 'Others']</t>
-  </si>
-  <si>
-    <t>['TESLA MODEL Y', 'Renault TWINGO', 'Others']</t>
-  </si>
-  <si>
-    <t>['Others', 'Renault ZOE']</t>
-  </si>
-  <si>
-    <t>['Hyundai IONIQ5 58kWh', 'Tesla MODEL 3']</t>
-  </si>
-  <si>
-    <t>['Renault ZOE', 'Audi Q4', 'Smart FORTWO']</t>
-  </si>
-  <si>
-    <t>['VW ID.3', 'MINI Cooper SE']</t>
-  </si>
-  <si>
-    <t>['Tesla MODEL 3', 'Others', 'Hyundai KONA 39 kWh']</t>
-  </si>
-  <si>
-    <t>[0.2, 0.15, 0.15]</t>
+    <t>['Peugeot 208', 'Others']</t>
+  </si>
+  <si>
+    <t>['TESLA MODEL Y', 'Others', 'TESLA MODEL Y']</t>
+  </si>
+  <si>
+    <t>['VW E-UP', 'Fiat 500 E', 'Renault ZOE']</t>
+  </si>
+  <si>
+    <t>['VW E-UP', 'Others']</t>
+  </si>
+  <si>
+    <t>[0.4999999999999999, 0.25, 0.05]</t>
+  </si>
+  <si>
+    <t>[0.25, 0.15]</t>
+  </si>
+  <si>
+    <t>[0.1]</t>
+  </si>
+  <si>
+    <t>[0.15]</t>
+  </si>
+  <si>
+    <t>[0.2, 0.25, 0.45]</t>
+  </si>
+  <si>
+    <t>[0.1, 0.05, 0.3]</t>
+  </si>
+  <si>
+    <t>[0.25, 0.2]</t>
+  </si>
+  <si>
+    <t>[0.2, 0.05, 0.15, 0.1]</t>
+  </si>
+  <si>
+    <t>[0.25]</t>
   </si>
   <si>
     <t>[0.25, 0.35]</t>
   </si>
   <si>
-    <t>[0.1, 0.1, 0.3, 0.25]</t>
-  </si>
-  <si>
-    <t>[0.05]</t>
-  </si>
-  <si>
-    <t>[0.2]</t>
-  </si>
-  <si>
-    <t>[0.15, 0.2, 0.2]</t>
-  </si>
-  <si>
-    <t>[0.2, 0.2]</t>
-  </si>
-  <si>
-    <t>[0.15, 0.2, 0.25]</t>
-  </si>
-  <si>
-    <t>[0.15, 0.05]</t>
-  </si>
-  <si>
-    <t>[0.05, 0.2]</t>
-  </si>
-  <si>
-    <t>[0.2, 0.25, 0.1]</t>
-  </si>
-  <si>
-    <t>[0.05, 0.1]</t>
-  </si>
-  <si>
-    <t>[0.2, 0.3, 0.2]</t>
-  </si>
-  <si>
-    <t>[0.7500000000000001, 0.8000000000000002, 0.7500000000000001]</t>
-  </si>
-  <si>
-    <t>[0.7500000000000001, 0.65]</t>
-  </si>
-  <si>
-    <t>[1.0, 0.8000000000000002, 0.65, 0.8500000000000002]</t>
-  </si>
-  <si>
-    <t>[0.9500000000000003]</t>
-  </si>
-  <si>
-    <t>[0.65, 0.9500000000000003, 0.9000000000000002]</t>
-  </si>
-  <si>
-    <t>[0.8500000000000002, 0.9500000000000003]</t>
-  </si>
-  <si>
-    <t>[0.65, 0.6, 0.9500000000000003]</t>
-  </si>
-  <si>
-    <t>[0.7000000000000001, 0.9500000000000003]</t>
-  </si>
-  <si>
-    <t>[0.8000000000000002, 1.0]</t>
-  </si>
-  <si>
-    <t>[0.9000000000000002, 0.8000000000000002, 0.9000000000000002]</t>
-  </si>
-  <si>
-    <t>[0.7000000000000001, 0.8000000000000002]</t>
-  </si>
-  <si>
-    <t>[0.9000000000000002, 0.8500000000000002, 0.8000000000000002]</t>
-  </si>
-  <si>
-    <t>[28.946805555555557, 29.250000000000007, 38.400000000000006]</t>
-  </si>
-  <si>
-    <t>[18.400000000000002, 15.600000000000001]</t>
-  </si>
-  <si>
-    <t>[57.6, 40.60000000000001, 18.420694444444447, 14.400000000000006]</t>
-  </si>
-  <si>
-    <t>[52.20000000000002]</t>
-  </si>
-  <si>
-    <t>[39.47291666666668]</t>
-  </si>
-  <si>
-    <t>[19.5, 39.47291666666668, 44.80000000000001]</t>
-  </si>
-  <si>
-    <t>[50.05000000000001, 39.47291666666668]</t>
-  </si>
-  <si>
-    <t>[37.5, 8.52, 36.8413888888889]</t>
-  </si>
-  <si>
-    <t>[28.946805555555557, 46.80000000000001]</t>
-  </si>
-  <si>
-    <t>[43.50000000000001, 40.0]</t>
-  </si>
-  <si>
-    <t>[36.400000000000006, 42.13000000000001, 14.080000000000005]</t>
-  </si>
-  <si>
-    <t>[37.7, 20.230000000000004]</t>
-  </si>
-  <si>
-    <t>[35.00000000000001, 28.946805555555567, 23.400000000000002]</t>
+    <t>[0.2, 0.2, 0.4]</t>
+  </si>
+  <si>
+    <t>[0.2, 0.25, 0.2]</t>
+  </si>
+  <si>
+    <t>[0.05, 0.3]</t>
+  </si>
+  <si>
+    <t>[0.8500000000000002, 0.9000000000000002, 0.65]</t>
+  </si>
+  <si>
+    <t>[0.9500000000000003, 0.8000000000000002]</t>
+  </si>
+  <si>
+    <t>[0.8500000000000002]</t>
+  </si>
+  <si>
+    <t>[0.8000000000000002]</t>
+  </si>
+  <si>
+    <t>[0.9000000000000002, 0.7500000000000001, 0.8000000000000002]</t>
+  </si>
+  <si>
+    <t>[0.7500000000000001, 0.7500000000000001, 0.8500000000000002]</t>
+  </si>
+  <si>
+    <t>[0.6, 0.8500000000000002]</t>
+  </si>
+  <si>
+    <t>[0.6, 0.9000000000000002, 0.8500000000000002, 0.7000000000000001]</t>
+  </si>
+  <si>
+    <t>[0.7000000000000001]</t>
+  </si>
+  <si>
+    <t>[0.7500000000000001, 0.8000000000000002]</t>
+  </si>
+  <si>
+    <t>[0.8000000000000002, 1.0, 0.6]</t>
+  </si>
+  <si>
+    <t>[1.0, 0.8500000000000002, 0.7000000000000001]</t>
+  </si>
+  <si>
+    <t>[0.8000000000000002, 0.7500000000000001]</t>
+  </si>
+  <si>
+    <t>[18.42069444444446, 55.25000000000002, 31.57833333333333]</t>
+  </si>
+  <si>
+    <t>[59.50000000000002, 34.20986111111112]</t>
+  </si>
+  <si>
+    <t>[56.250000000000014]</t>
+  </si>
+  <si>
+    <t>[41.60000000000001]</t>
+  </si>
+  <si>
+    <t>[52.500000000000014, 42.50000000000001, 18.42069444444445]</t>
+  </si>
+  <si>
+    <t>[34.20986111111112, 36.84138888888889, 28.946805555555567]</t>
+  </si>
+  <si>
+    <t>[20.299999999999997, 33.800000000000004]</t>
+  </si>
+  <si>
+    <t>[14.719999999999997, 31.280000000000005, 36.84138888888889, 34.800000000000004]</t>
+  </si>
+  <si>
+    <t>[23.683750000000003]</t>
+  </si>
+  <si>
+    <t>[22.500000000000004, 23.683750000000007]</t>
+  </si>
+  <si>
+    <t>[45.00000000000001, 42.10444444444445, 14.999999999999996]</t>
+  </si>
+  <si>
+    <t>[29.439999999999998, 14.400000000000006, 26.0]</t>
+  </si>
+  <si>
+    <t>[27.6, 23.683750000000007]</t>
   </si>
 </sst>
 </file>
@@ -692,7 +698,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -723,16 +729,16 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -743,16 +749,16 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -763,16 +769,16 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -783,16 +789,16 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -803,16 +809,16 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -823,16 +829,16 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -843,19 +849,19 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E8" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F8">
-        <v>96.59680555555556</v>
+        <v>105.2490277777778</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -863,19 +869,19 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E9" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F9">
-        <v>34</v>
+        <v>93.70986111111114</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -883,16 +889,16 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -903,19 +909,19 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="D11" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="E11" t="s">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>56.25000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -923,19 +929,19 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C12" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D12" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E12" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F12">
-        <v>131.0206944444445</v>
+        <v>41.60000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -943,19 +949,19 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C13" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D13" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E13" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F13">
-        <v>52.20000000000002</v>
+        <v>113.4206944444445</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -963,16 +969,16 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -983,19 +989,19 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C15" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="D15" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="E15" t="s">
-        <v>98</v>
+        <v>56</v>
       </c>
       <c r="F15">
-        <v>39.47291666666668</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1003,19 +1009,19 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C16" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D16" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E16" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F16">
-        <v>103.7729166666667</v>
+        <v>99.99805555555558</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1023,19 +1029,19 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C17" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E17" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F17">
-        <v>89.52291666666669</v>
+        <v>54.1</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1043,16 +1049,16 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1063,16 +1069,16 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1083,16 +1089,16 @@
         <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1103,16 +1109,16 @@
         <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1123,16 +1129,16 @@
         <v>26</v>
       </c>
       <c r="B22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -1143,16 +1149,16 @@
         <v>27</v>
       </c>
       <c r="B23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -1163,16 +1169,16 @@
         <v>28</v>
       </c>
       <c r="B24" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C24" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D24" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E24" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -1183,16 +1189,16 @@
         <v>29</v>
       </c>
       <c r="B25" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C25" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D25" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E25" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1203,16 +1209,16 @@
         <v>30</v>
       </c>
       <c r="B26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -1223,16 +1229,16 @@
         <v>31</v>
       </c>
       <c r="B27" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C27" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D27" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E27" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -1243,16 +1249,16 @@
         <v>32</v>
       </c>
       <c r="B28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -1263,16 +1269,16 @@
         <v>33</v>
       </c>
       <c r="B29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -1283,16 +1289,16 @@
         <v>34</v>
       </c>
       <c r="B30" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C30" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D30" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E30" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -1303,16 +1309,16 @@
         <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C31" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D31" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E31" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -1323,19 +1329,19 @@
         <v>36</v>
       </c>
       <c r="B32" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C32" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D32" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E32" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F32">
-        <v>82.8613888888889</v>
+        <v>117.6413888888889</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1343,19 +1349,19 @@
         <v>37</v>
       </c>
       <c r="B33" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C33" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D33" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E33" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F33">
-        <v>75.74680555555557</v>
+        <v>23.68375</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1363,16 +1369,16 @@
         <v>38</v>
       </c>
       <c r="B34" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C34" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D34" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E34" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -1383,16 +1389,16 @@
         <v>39</v>
       </c>
       <c r="B35" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C35" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D35" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E35" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F35">
         <v>0</v>
@@ -1403,19 +1409,19 @@
         <v>40</v>
       </c>
       <c r="B36" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C36" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D36" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E36" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F36">
-        <v>83.5</v>
+        <v>46.18375000000001</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1423,19 +1429,19 @@
         <v>41</v>
       </c>
       <c r="B37" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C37" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D37" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E37" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F37">
-        <v>92.61000000000001</v>
+        <v>102.1044444444445</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1443,16 +1449,16 @@
         <v>42</v>
       </c>
       <c r="B38" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C38" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D38" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E38" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -1463,16 +1469,16 @@
         <v>43</v>
       </c>
       <c r="B39" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C39" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D39" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E39" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -1483,19 +1489,19 @@
         <v>44</v>
       </c>
       <c r="B40" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C40" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D40" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E40" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F40">
-        <v>57.93000000000001</v>
+        <v>69.84</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1503,19 +1509,19 @@
         <v>45</v>
       </c>
       <c r="B41" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C41" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D41" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E41" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F41">
-        <v>87.34680555555558</v>
+        <v>51.28375000000001</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1523,16 +1529,16 @@
         <v>46</v>
       </c>
       <c r="B42" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C42" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D42" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E42" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -1543,16 +1549,16 @@
         <v>47</v>
       </c>
       <c r="B43" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C43" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D43" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E43" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -1563,16 +1569,16 @@
         <v>48</v>
       </c>
       <c r="B44" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C44" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D44" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E44" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F44">
         <v>0</v>
@@ -1583,16 +1589,16 @@
         <v>49</v>
       </c>
       <c r="B45" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C45" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D45" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E45" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F45">
         <v>0</v>
@@ -1603,16 +1609,16 @@
         <v>50</v>
       </c>
       <c r="B46" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C46" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D46" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E46" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -1623,16 +1629,16 @@
         <v>51</v>
       </c>
       <c r="B47" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C47" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D47" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E47" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -1643,16 +1649,16 @@
         <v>52</v>
       </c>
       <c r="B48" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C48" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D48" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E48" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -1663,16 +1669,16 @@
         <v>53</v>
       </c>
       <c r="B49" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C49" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D49" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E49" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -1683,18 +1689,38 @@
         <v>54</v>
       </c>
       <c r="B50" t="s">
+        <v>56</v>
+      </c>
+      <c r="C50" t="s">
+        <v>56</v>
+      </c>
+      <c r="D50" t="s">
+        <v>56</v>
+      </c>
+      <c r="E50" t="s">
+        <v>56</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" t="s">
         <v>55</v>
       </c>
-      <c r="C50" t="s">
-        <v>55</v>
-      </c>
-      <c r="D50" t="s">
-        <v>55</v>
-      </c>
-      <c r="E50" t="s">
-        <v>55</v>
-      </c>
-      <c r="F50">
+      <c r="B51" t="s">
+        <v>56</v>
+      </c>
+      <c r="C51" t="s">
+        <v>56</v>
+      </c>
+      <c r="D51" t="s">
+        <v>56</v>
+      </c>
+      <c r="E51" t="s">
+        <v>56</v>
+      </c>
+      <c r="F51">
         <v>0</v>
       </c>
     </row>

--- a/output/df_structured_charging_station2.xlsx
+++ b/output/df_structured_charging_station2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="112">
   <si>
     <t>timestamp</t>
   </si>
@@ -187,160 +187,169 @@
     <t>[]</t>
   </si>
   <si>
-    <t>['Others', 'Audi E-TRON', 'Others']</t>
-  </si>
-  <si>
-    <t>['Audi E-TRON', 'Others']</t>
-  </si>
-  <si>
-    <t>['TESLA MODEL Y']</t>
-  </si>
-  <si>
-    <t>['Hyundai KONA 64 kWh']</t>
-  </si>
-  <si>
-    <t>['Polestar 2', 'Audi E-TRON', 'Others']</t>
-  </si>
-  <si>
-    <t>['Others', 'Others', 'Others']</t>
-  </si>
-  <si>
-    <t>['VW ID.3', 'Renault ZOE']</t>
-  </si>
-  <si>
-    <t>['VW E-UP', 'VW E-UP', 'Others', 'VW ID.3']</t>
+    <t>['Fiat 500 E']</t>
+  </si>
+  <si>
+    <t>['Others', 'VW ID.4']</t>
+  </si>
+  <si>
+    <t>['Others', 'Others']</t>
+  </si>
+  <si>
+    <t>['VW ID.3', 'Others', 'TESLA MODEL Y', 'Smart FORTWO']</t>
+  </si>
+  <si>
+    <t>['Tesla MODEL 3']</t>
+  </si>
+  <si>
+    <t>['VW ID.5']</t>
   </si>
   <si>
     <t>['Others']</t>
   </si>
   <si>
-    <t>['Peugeot 208', 'Others']</t>
-  </si>
-  <si>
-    <t>['TESLA MODEL Y', 'Others', 'TESLA MODEL Y']</t>
-  </si>
-  <si>
-    <t>['VW E-UP', 'Fiat 500 E', 'Renault ZOE']</t>
-  </si>
-  <si>
-    <t>['VW E-UP', 'Others']</t>
-  </si>
-  <si>
-    <t>[0.4999999999999999, 0.25, 0.05]</t>
-  </si>
-  <si>
-    <t>[0.25, 0.15]</t>
-  </si>
-  <si>
-    <t>[0.1]</t>
-  </si>
-  <si>
-    <t>[0.15]</t>
-  </si>
-  <si>
-    <t>[0.2, 0.25, 0.45]</t>
-  </si>
-  <si>
-    <t>[0.1, 0.05, 0.3]</t>
-  </si>
-  <si>
-    <t>[0.25, 0.2]</t>
-  </si>
-  <si>
-    <t>[0.2, 0.05, 0.15, 0.1]</t>
+    <t>['Others', 'Others', 'MINI Cooper SE']</t>
+  </si>
+  <si>
+    <t>['Others', 'Hyundai KONA 64 kWh']</t>
+  </si>
+  <si>
+    <t>['Tesla MODEL 3', 'Fiat 500 E', 'Others']</t>
+  </si>
+  <si>
+    <t>['MINI Cooper SE', 'Tesla MODEL 3', 'MINI Cooper SE']</t>
+  </si>
+  <si>
+    <t>['MINI Cooper SE', 'Others']</t>
+  </si>
+  <si>
+    <t>[0.35]</t>
+  </si>
+  <si>
+    <t>[0.35, 0.35]</t>
+  </si>
+  <si>
+    <t>[0.05, 0.1]</t>
+  </si>
+  <si>
+    <t>[0.4, 0.15, 0.2, 0.4]</t>
+  </si>
+  <si>
+    <t>[0.05]</t>
   </si>
   <si>
     <t>[0.25]</t>
   </si>
   <si>
-    <t>[0.25, 0.35]</t>
-  </si>
-  <si>
-    <t>[0.2, 0.2, 0.4]</t>
-  </si>
-  <si>
-    <t>[0.2, 0.25, 0.2]</t>
-  </si>
-  <si>
-    <t>[0.05, 0.3]</t>
-  </si>
-  <si>
-    <t>[0.8500000000000002, 0.9000000000000002, 0.65]</t>
+    <t>[0.35, 0.1]</t>
+  </si>
+  <si>
+    <t>[0.2]</t>
+  </si>
+  <si>
+    <t>[0.3, 0.1, 0.2]</t>
+  </si>
+  <si>
+    <t>[0.35, 0.15, 0.2]</t>
+  </si>
+  <si>
+    <t>[0.25, 0.45]</t>
+  </si>
+  <si>
+    <t>[0.25, 0.15, 0.2]</t>
+  </si>
+  <si>
+    <t>[0.15, 0.1, 0.2]</t>
+  </si>
+  <si>
+    <t>[0.1, 0.1]</t>
+  </si>
+  <si>
+    <t>[0.9500000000000003]</t>
+  </si>
+  <si>
+    <t>[0.8000000000000002, 0.9000000000000002]</t>
+  </si>
+  <si>
+    <t>[1.0, 0.9000000000000002]</t>
+  </si>
+  <si>
+    <t>[0.6, 0.9500000000000003, 0.65, 0.9500000000000003]</t>
+  </si>
+  <si>
+    <t>[0.9000000000000002]</t>
   </si>
   <si>
     <t>[0.9500000000000003, 0.8000000000000002]</t>
   </si>
   <si>
-    <t>[0.8500000000000002]</t>
-  </si>
-  <si>
-    <t>[0.8000000000000002]</t>
-  </si>
-  <si>
-    <t>[0.9000000000000002, 0.7500000000000001, 0.8000000000000002]</t>
-  </si>
-  <si>
-    <t>[0.7500000000000001, 0.7500000000000001, 0.8500000000000002]</t>
-  </si>
-  <si>
-    <t>[0.6, 0.8500000000000002]</t>
-  </si>
-  <si>
-    <t>[0.6, 0.9000000000000002, 0.8500000000000002, 0.7000000000000001]</t>
-  </si>
-  <si>
-    <t>[0.7000000000000001]</t>
-  </si>
-  <si>
-    <t>[0.7500000000000001, 0.8000000000000002]</t>
-  </si>
-  <si>
-    <t>[0.8000000000000002, 1.0, 0.6]</t>
-  </si>
-  <si>
-    <t>[1.0, 0.8500000000000002, 0.7000000000000001]</t>
+    <t>[1.0]</t>
+  </si>
+  <si>
+    <t>[0.7500000000000001]</t>
+  </si>
+  <si>
+    <t>[0.65, 0.9000000000000002, 0.9000000000000002]</t>
+  </si>
+  <si>
+    <t>[1.0, 0.9000000000000002, 0.9000000000000002]</t>
   </si>
   <si>
     <t>[0.8000000000000002, 0.7500000000000001]</t>
   </si>
   <si>
-    <t>[18.42069444444446, 55.25000000000002, 31.57833333333333]</t>
-  </si>
-  <si>
-    <t>[59.50000000000002, 34.20986111111112]</t>
-  </si>
-  <si>
-    <t>[56.250000000000014]</t>
-  </si>
-  <si>
-    <t>[41.60000000000001]</t>
-  </si>
-  <si>
-    <t>[52.500000000000014, 42.50000000000001, 18.42069444444445]</t>
-  </si>
-  <si>
-    <t>[34.20986111111112, 36.84138888888889, 28.946805555555567]</t>
-  </si>
-  <si>
-    <t>[20.299999999999997, 33.800000000000004]</t>
-  </si>
-  <si>
-    <t>[14.719999999999997, 31.280000000000005, 36.84138888888889, 34.800000000000004]</t>
-  </si>
-  <si>
-    <t>[23.683750000000003]</t>
-  </si>
-  <si>
-    <t>[22.500000000000004, 23.683750000000007]</t>
-  </si>
-  <si>
-    <t>[45.00000000000001, 42.10444444444445, 14.999999999999996]</t>
-  </si>
-  <si>
-    <t>[29.439999999999998, 14.400000000000006, 26.0]</t>
-  </si>
-  <si>
-    <t>[27.6, 23.683750000000007]</t>
+    <t>[0.7000000000000001, 1.0, 1.0]</t>
+  </si>
+  <si>
+    <t>[0.8500000000000002, 0.9000000000000002, 0.9000000000000002]</t>
+  </si>
+  <si>
+    <t>[0.8500000000000002, 0.8500000000000002]</t>
+  </si>
+  <si>
+    <t>[14.400000000000007]</t>
+  </si>
+  <si>
+    <t>[23.683750000000007, 42.35000000000002]</t>
+  </si>
+  <si>
+    <t>[49.999027777777776, 42.104444444444454]</t>
+  </si>
+  <si>
+    <t>[11.599999999999998, 42.104444444444454, 33.75, 9.680000000000005]</t>
+  </si>
+  <si>
+    <t>[20.400000000000006]</t>
+  </si>
+  <si>
+    <t>[35.000000000000014]</t>
+  </si>
+  <si>
+    <t>[31.578333333333347, 36.84138888888889]</t>
+  </si>
+  <si>
+    <t>[61.6]</t>
+  </si>
+  <si>
+    <t>[28.946805555555557]</t>
+  </si>
+  <si>
+    <t>[18.420694444444447, 42.104444444444454, 20.230000000000004]</t>
+  </si>
+  <si>
+    <t>[34.20986111111111, 39.47291666666668, 20.230000000000004]</t>
+  </si>
+  <si>
+    <t>[28.946805555555564, 19.200000000000006]</t>
+  </si>
+  <si>
+    <t>[22.500000000000004, 20.4, 42.10444444444445]</t>
+  </si>
+  <si>
+    <t>[20.230000000000004, 40.000000000000014, 20.230000000000004]</t>
+  </si>
+  <si>
+    <t>[21.675000000000004, 39.47291666666668]</t>
   </si>
 </sst>
 </file>
@@ -829,19 +838,19 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="D7" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="E7" t="s">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>14.40000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -849,19 +858,19 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C8" t="s">
         <v>70</v>
       </c>
       <c r="D8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E8" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F8">
-        <v>105.2490277777778</v>
+        <v>66.03375000000003</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -869,19 +878,19 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C9" t="s">
         <v>71</v>
       </c>
       <c r="D9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E9" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F9">
-        <v>93.70986111111114</v>
+        <v>92.10347222222222</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -909,19 +918,19 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C11" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="D11" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="E11" t="s">
-        <v>98</v>
+        <v>56</v>
       </c>
       <c r="F11">
-        <v>56.25000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -929,19 +938,19 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C12" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="D12" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="E12" t="s">
-        <v>99</v>
+        <v>56</v>
       </c>
       <c r="F12">
-        <v>41.60000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -949,19 +958,19 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E13" t="s">
         <v>100</v>
       </c>
       <c r="F13">
-        <v>113.4206944444445</v>
+        <v>97.13444444444445</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -969,19 +978,19 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C14" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="D14" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="E14" t="s">
-        <v>56</v>
+        <v>101</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>20.40000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -989,19 +998,19 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C15" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="D15" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="E15" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>35.00000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1009,7 +1018,7 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C16" t="s">
         <v>75</v>
@@ -1018,10 +1027,10 @@
         <v>88</v>
       </c>
       <c r="E16" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F16">
-        <v>99.99805555555558</v>
+        <v>68.41972222222225</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1029,7 +1038,7 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C17" t="s">
         <v>76</v>
@@ -1038,10 +1047,10 @@
         <v>89</v>
       </c>
       <c r="E17" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F17">
-        <v>54.1</v>
+        <v>61.6</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1049,19 +1058,19 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C18" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="D18" t="s">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="E18" t="s">
-        <v>56</v>
+        <v>105</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>28.94680555555556</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1335,13 +1344,13 @@
         <v>77</v>
       </c>
       <c r="D32" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E32" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F32">
-        <v>117.6413888888889</v>
+        <v>80.75513888888891</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1349,19 +1358,19 @@
         <v>37</v>
       </c>
       <c r="B33" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C33" t="s">
         <v>78</v>
       </c>
       <c r="D33" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E33" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F33">
-        <v>23.68375</v>
+        <v>93.91277777777779</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1409,19 +1418,19 @@
         <v>40</v>
       </c>
       <c r="B36" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C36" t="s">
         <v>79</v>
       </c>
       <c r="D36" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E36" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F36">
-        <v>46.18375000000001</v>
+        <v>48.14680555555557</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1429,19 +1438,19 @@
         <v>41</v>
       </c>
       <c r="B37" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C37" t="s">
         <v>80</v>
       </c>
       <c r="D37" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E37" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F37">
-        <v>102.1044444444445</v>
+        <v>85.00444444444446</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1489,19 +1498,19 @@
         <v>44</v>
       </c>
       <c r="B40" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C40" t="s">
         <v>81</v>
       </c>
       <c r="D40" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E40" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F40">
-        <v>69.84</v>
+        <v>80.46000000000002</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1509,19 +1518,19 @@
         <v>45</v>
       </c>
       <c r="B41" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C41" t="s">
         <v>82</v>
       </c>
       <c r="D41" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E41" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="F41">
-        <v>51.28375000000001</v>
+        <v>61.14791666666668</v>
       </c>
     </row>
     <row r="42" spans="1:6">

--- a/output/df_structured_charging_station2.xlsx
+++ b/output/df_structured_charging_station2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="110">
   <si>
     <t>timestamp</t>
   </si>
@@ -187,169 +187,163 @@
     <t>[]</t>
   </si>
   <si>
-    <t>['Fiat 500 E']</t>
-  </si>
-  <si>
-    <t>['Others', 'VW ID.4']</t>
-  </si>
-  <si>
-    <t>['Others', 'Others']</t>
-  </si>
-  <si>
-    <t>['VW ID.3', 'Others', 'TESLA MODEL Y', 'Smart FORTWO']</t>
-  </si>
-  <si>
-    <t>['Tesla MODEL 3']</t>
-  </si>
-  <si>
-    <t>['VW ID.5']</t>
+    <t>['Dacia SPRING']</t>
+  </si>
+  <si>
+    <t>['Opel CORSA', 'Others', 'SKODA ENYAQ 58kWh', 'VW ID.5']</t>
+  </si>
+  <si>
+    <t>['Tesla MODEL 3', 'Dacia SPRING']</t>
+  </si>
+  <si>
+    <t>['Audi Q4', 'Others', 'Fiat 500 E']</t>
+  </si>
+  <si>
+    <t>['VW ID.3']</t>
+  </si>
+  <si>
+    <t>['Audi E-TRON', 'VW ID.4']</t>
+  </si>
+  <si>
+    <t>['Peugeot 208', 'Fiat 500 E']</t>
   </si>
   <si>
     <t>['Others']</t>
   </si>
   <si>
-    <t>['Others', 'Others', 'MINI Cooper SE']</t>
-  </si>
-  <si>
-    <t>['Others', 'Hyundai KONA 64 kWh']</t>
-  </si>
-  <si>
-    <t>['Tesla MODEL 3', 'Fiat 500 E', 'Others']</t>
-  </si>
-  <si>
-    <t>['MINI Cooper SE', 'Tesla MODEL 3', 'MINI Cooper SE']</t>
-  </si>
-  <si>
-    <t>['MINI Cooper SE', 'Others']</t>
+    <t>['Tesla MODEL 3', 'Tesla MODEL 3', 'Tesla MODEL 3', 'MINI Cooper SE']</t>
+  </si>
+  <si>
+    <t>['Fiat 500 E', 'Others']</t>
+  </si>
+  <si>
+    <t>['Smart FORTWO', 'Audi Q4']</t>
+  </si>
+  <si>
+    <t>['VW E-UP', 'Polestar 2', 'Others', 'Fiat 500 E']</t>
+  </si>
+  <si>
+    <t>['TESLA MODEL Y']</t>
+  </si>
+  <si>
+    <t>[0.3]</t>
+  </si>
+  <si>
+    <t>[0.3, 0.2, 0.2, 0.25]</t>
+  </si>
+  <si>
+    <t>[0.35, 0.3]</t>
+  </si>
+  <si>
+    <t>[0.1, 0.35, 0.25]</t>
+  </si>
+  <si>
+    <t>[0.1]</t>
+  </si>
+  <si>
+    <t>[0.4, 0.1]</t>
+  </si>
+  <si>
+    <t>[0.2, 0.05]</t>
   </si>
   <si>
     <t>[0.35]</t>
   </si>
   <si>
-    <t>[0.35, 0.35]</t>
-  </si>
-  <si>
-    <t>[0.05, 0.1]</t>
-  </si>
-  <si>
-    <t>[0.4, 0.15, 0.2, 0.4]</t>
+    <t>[0.2, 0.35, 0.4, 0.2]</t>
+  </si>
+  <si>
+    <t>[0.2, 0.25]</t>
+  </si>
+  <si>
+    <t>[0.4, 0.25]</t>
   </si>
   <si>
     <t>[0.05]</t>
   </si>
   <si>
+    <t>[0.3, 0.4, 0.2, 0.2]</t>
+  </si>
+  <si>
     <t>[0.25]</t>
   </si>
   <si>
-    <t>[0.35, 0.1]</t>
-  </si>
-  <si>
-    <t>[0.2]</t>
-  </si>
-  <si>
-    <t>[0.3, 0.1, 0.2]</t>
-  </si>
-  <si>
-    <t>[0.35, 0.15, 0.2]</t>
-  </si>
-  <si>
-    <t>[0.25, 0.45]</t>
-  </si>
-  <si>
-    <t>[0.25, 0.15, 0.2]</t>
-  </si>
-  <si>
-    <t>[0.15, 0.1, 0.2]</t>
-  </si>
-  <si>
-    <t>[0.1, 0.1]</t>
-  </si>
-  <si>
-    <t>[0.9500000000000003]</t>
-  </si>
-  <si>
-    <t>[0.8000000000000002, 0.9000000000000002]</t>
-  </si>
-  <si>
-    <t>[1.0, 0.9000000000000002]</t>
-  </si>
-  <si>
-    <t>[0.6, 0.9500000000000003, 0.65, 0.9500000000000003]</t>
-  </si>
-  <si>
-    <t>[0.9000000000000002]</t>
-  </si>
-  <si>
-    <t>[0.9500000000000003, 0.8000000000000002]</t>
-  </si>
-  <si>
-    <t>[1.0]</t>
+    <t>[0.8500000000000002]</t>
+  </si>
+  <si>
+    <t>[0.8500000000000002, 0.8500000000000002, 0.7000000000000001, 0.7500000000000001]</t>
+  </si>
+  <si>
+    <t>[0.9000000000000002, 0.8000000000000002]</t>
+  </si>
+  <si>
+    <t>[0.8500000000000002, 0.9000000000000002, 0.9500000000000003]</t>
+  </si>
+  <si>
+    <t>[0.8000000000000002, 0.9500000000000003]</t>
+  </si>
+  <si>
+    <t>[0.8500000000000002, 0.7000000000000001]</t>
   </si>
   <si>
     <t>[0.7500000000000001]</t>
   </si>
   <si>
-    <t>[0.65, 0.9000000000000002, 0.9000000000000002]</t>
-  </si>
-  <si>
-    <t>[1.0, 0.9000000000000002, 0.9000000000000002]</t>
-  </si>
-  <si>
-    <t>[0.8000000000000002, 0.7500000000000001]</t>
-  </si>
-  <si>
-    <t>[0.7000000000000001, 1.0, 1.0]</t>
-  </si>
-  <si>
-    <t>[0.8500000000000002, 0.9000000000000002, 0.9000000000000002]</t>
-  </si>
-  <si>
-    <t>[0.8500000000000002, 0.8500000000000002]</t>
-  </si>
-  <si>
-    <t>[14.400000000000007]</t>
-  </si>
-  <si>
-    <t>[23.683750000000007, 42.35000000000002]</t>
-  </si>
-  <si>
-    <t>[49.999027777777776, 42.104444444444454]</t>
-  </si>
-  <si>
-    <t>[11.599999999999998, 42.104444444444454, 33.75, 9.680000000000005]</t>
-  </si>
-  <si>
-    <t>[20.400000000000006]</t>
-  </si>
-  <si>
-    <t>[35.000000000000014]</t>
-  </si>
-  <si>
-    <t>[31.578333333333347, 36.84138888888889]</t>
-  </si>
-  <si>
-    <t>[61.6]</t>
-  </si>
-  <si>
-    <t>[28.946805555555557]</t>
-  </si>
-  <si>
-    <t>[18.420694444444447, 42.104444444444454, 20.230000000000004]</t>
-  </si>
-  <si>
-    <t>[34.20986111111111, 39.47291666666668, 20.230000000000004]</t>
-  </si>
-  <si>
-    <t>[28.946805555555564, 19.200000000000006]</t>
-  </si>
-  <si>
-    <t>[22.500000000000004, 20.4, 42.10444444444445]</t>
-  </si>
-  <si>
-    <t>[20.230000000000004, 40.000000000000014, 20.230000000000004]</t>
-  </si>
-  <si>
-    <t>[21.675000000000004, 39.47291666666668]</t>
+    <t>[0.9500000000000003, 0.9500000000000003, 0.9000000000000002, 0.8500000000000002]</t>
+  </si>
+  <si>
+    <t>[0.65, 0.9500000000000003]</t>
+  </si>
+  <si>
+    <t>[0.9500000000000003, 0.9000000000000002]</t>
+  </si>
+  <si>
+    <t>[0.65]</t>
+  </si>
+  <si>
+    <t>[0.9000000000000002, 0.8500000000000002, 0.8000000000000002, 0.8000000000000002]</t>
+  </si>
+  <si>
+    <t>[14.740000000000007]</t>
+  </si>
+  <si>
+    <t>[24.75000000000001, 34.20986111111112, 29.0, 38.50000000000001]</t>
+  </si>
+  <si>
+    <t>[27.500000000000014, 13.400000000000006]</t>
+  </si>
+  <si>
+    <t>[57.45000000000001, 28.946805555555567, 16.800000000000008]</t>
+  </si>
+  <si>
+    <t>[43.500000000000014]</t>
+  </si>
+  <si>
+    <t>[34.000000000000014, 65.45000000000002]</t>
+  </si>
+  <si>
+    <t>[29.250000000000007, 15.600000000000001]</t>
+  </si>
+  <si>
+    <t>[21.052222222222227]</t>
+  </si>
+  <si>
+    <t>[37.500000000000014, 30.000000000000014, 25.00000000000001, 18.785000000000004]</t>
+  </si>
+  <si>
+    <t>[10.8, 36.8413888888889]</t>
+  </si>
+  <si>
+    <t>[9.680000000000005, 49.79000000000001]</t>
+  </si>
+  <si>
+    <t>[31.57833333333333]</t>
+  </si>
+  <si>
+    <t>[22.08000000000001, 33.750000000000014, 31.578333333333337, 14.400000000000002]</t>
+  </si>
+  <si>
+    <t>[30.0]</t>
   </si>
 </sst>
 </file>
@@ -838,19 +832,19 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C7" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="D7" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="E7" t="s">
-        <v>97</v>
+        <v>56</v>
       </c>
       <c r="F7">
-        <v>14.40000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -858,7 +852,7 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C8" t="s">
         <v>70</v>
@@ -867,10 +861,10 @@
         <v>84</v>
       </c>
       <c r="E8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F8">
-        <v>66.03375000000003</v>
+        <v>14.74000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -878,7 +872,7 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C9" t="s">
         <v>71</v>
@@ -887,10 +881,10 @@
         <v>85</v>
       </c>
       <c r="E9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F9">
-        <v>92.10347222222222</v>
+        <v>126.4598611111111</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -938,19 +932,19 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C12" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="D12" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="E12" t="s">
-        <v>56</v>
+        <v>98</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>40.90000000000002</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -961,16 +955,16 @@
         <v>60</v>
       </c>
       <c r="C13" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D13" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F13">
-        <v>97.13444444444445</v>
+        <v>103.1968055555556</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -978,19 +972,19 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C14" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="D14" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="E14" t="s">
-        <v>101</v>
+        <v>56</v>
       </c>
       <c r="F14">
-        <v>20.40000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1004,13 +998,13 @@
         <v>74</v>
       </c>
       <c r="D15" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E15" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F15">
-        <v>35.00000000000001</v>
+        <v>43.50000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1018,7 +1012,7 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C16" t="s">
         <v>75</v>
@@ -1027,10 +1021,10 @@
         <v>88</v>
       </c>
       <c r="E16" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F16">
-        <v>68.41972222222225</v>
+        <v>99.45000000000003</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1038,7 +1032,7 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C17" t="s">
         <v>76</v>
@@ -1047,10 +1041,10 @@
         <v>89</v>
       </c>
       <c r="E17" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F17">
-        <v>61.6</v>
+        <v>44.85000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1058,19 +1052,19 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C18" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="D18" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="E18" t="s">
-        <v>105</v>
+        <v>56</v>
       </c>
       <c r="F18">
-        <v>28.94680555555556</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1344,13 +1338,13 @@
         <v>77</v>
       </c>
       <c r="D32" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E32" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F32">
-        <v>80.75513888888891</v>
+        <v>21.05222222222223</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1358,19 +1352,19 @@
         <v>37</v>
       </c>
       <c r="B33" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C33" t="s">
         <v>78</v>
       </c>
       <c r="D33" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E33" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F33">
-        <v>93.91277777777779</v>
+        <v>111.2850000000001</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1418,19 +1412,19 @@
         <v>40</v>
       </c>
       <c r="B36" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C36" t="s">
         <v>79</v>
       </c>
       <c r="D36" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E36" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F36">
-        <v>48.14680555555557</v>
+        <v>47.6413888888889</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1438,19 +1432,19 @@
         <v>41</v>
       </c>
       <c r="B37" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C37" t="s">
         <v>80</v>
       </c>
       <c r="D37" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E37" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F37">
-        <v>85.00444444444446</v>
+        <v>59.47000000000002</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1458,19 +1452,19 @@
         <v>42</v>
       </c>
       <c r="B38" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C38" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="D38" t="s">
-        <v>56</v>
+        <v>94</v>
       </c>
       <c r="E38" t="s">
-        <v>56</v>
+        <v>107</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>31.57833333333333</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1498,19 +1492,19 @@
         <v>44</v>
       </c>
       <c r="B40" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C40" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D40" t="s">
         <v>95</v>
       </c>
       <c r="E40" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F40">
-        <v>80.46000000000002</v>
+        <v>101.8083333333334</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1518,19 +1512,19 @@
         <v>45</v>
       </c>
       <c r="B41" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C41" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D41" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E41" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F41">
-        <v>61.14791666666668</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42" spans="1:6">
